--- a/data_year/zb/教育/中等职业学校(机构)教职工数.xlsx
+++ b/data_year/zb/教育/中等职业学校(机构)教职工数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,253 +483,225 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.4169</v>
+        <v>68.0954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8312</v>
+        <v>0.8256</v>
       </c>
       <c r="D2" t="n">
-        <v>97.34310000000001</v>
+        <v>95.6631</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0978</v>
+        <v>0.8305</v>
       </c>
       <c r="F2" t="n">
-        <v>9.516500000000001</v>
+        <v>8.751899999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>95.4141</v>
+        <v>94.00700000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>7.2647</v>
+        <v>6.8124</v>
       </c>
       <c r="I2" t="n">
-        <v>11.216</v>
+        <v>10.3473</v>
       </c>
       <c r="J2" t="n">
-        <v>10.285</v>
+        <v>10.1752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.21510000000001</v>
+        <v>68.9363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8250999999999999</v>
+        <v>0.7279</v>
       </c>
       <c r="D3" t="n">
-        <v>96.9477</v>
+        <v>94.5081</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8219</v>
+        <v>0.6677999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>9.2569</v>
+        <v>7.6891</v>
       </c>
       <c r="G3" t="n">
-        <v>95.30070000000001</v>
+        <v>93.11239999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>7.0696</v>
+        <v>6.8319</v>
       </c>
       <c r="I3" t="n">
-        <v>10.7591</v>
+        <v>9.655099999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>10.0335</v>
+        <v>10.2321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.0954</v>
+        <v>68.4071</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8256</v>
+        <v>0.6168</v>
       </c>
       <c r="D4" t="n">
-        <v>95.6631</v>
+        <v>92.1332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8305</v>
+        <v>0.6152</v>
       </c>
       <c r="F4" t="n">
-        <v>8.751899999999999</v>
+        <v>7.1272</v>
       </c>
       <c r="G4" t="n">
-        <v>94.00700000000001</v>
+        <v>90.9012</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8124</v>
+        <v>6.3633</v>
       </c>
       <c r="I4" t="n">
-        <v>10.3473</v>
+        <v>9.0036</v>
       </c>
       <c r="J4" t="n">
-        <v>10.1752</v>
+        <v>10.6549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.9363</v>
+        <v>66.8754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7279</v>
+        <v>0.441</v>
       </c>
       <c r="D5" t="n">
-        <v>94.5081</v>
+        <v>88.3959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6677999999999999</v>
+        <v>0.5377999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>7.6891</v>
+        <v>6.5066</v>
       </c>
       <c r="G5" t="n">
-        <v>93.11239999999999</v>
+        <v>87.4171</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8319</v>
+        <v>5.77</v>
       </c>
       <c r="I5" t="n">
-        <v>9.655099999999999</v>
+        <v>8.2651</v>
       </c>
       <c r="J5" t="n">
-        <v>10.2321</v>
+        <v>9.661899999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.4071</v>
+        <v>66.37820000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6168</v>
+        <v>0.4459</v>
       </c>
       <c r="D6" t="n">
-        <v>92.1332</v>
+        <v>86.6905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6152</v>
+        <v>0.4615</v>
       </c>
       <c r="F6" t="n">
-        <v>7.1272</v>
+        <v>6.0305</v>
       </c>
       <c r="G6" t="n">
-        <v>90.9012</v>
+        <v>85.7831</v>
       </c>
       <c r="H6" t="n">
-        <v>6.3633</v>
+        <v>5.5703</v>
       </c>
       <c r="I6" t="n">
-        <v>9.0036</v>
+        <v>7.8041</v>
       </c>
       <c r="J6" t="n">
-        <v>10.6549</v>
+        <v>9.966200000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.8754</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.441</v>
-      </c>
+        <v>65.24469999999999</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>88.3959</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5377999999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.5066</v>
-      </c>
-      <c r="G7" t="n">
-        <v>87.4171</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.2651</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.661899999999999</v>
-      </c>
+        <v>84.1495</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.37820000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4459</v>
-      </c>
+        <v>64.3143</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>86.6905</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4615</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.0305</v>
-      </c>
-      <c r="G8" t="n">
-        <v>85.7831</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.5703</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.8041</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.966200000000001</v>
-      </c>
+        <v>82.10469999999999</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.24469999999999</v>
+        <v>64.0398</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>84.1495</v>
+        <v>81.1147</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -741,15 +713,15 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.3143</v>
+        <v>63.5461</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>82.10469999999999</v>
+        <v>79.9593</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -761,15 +733,15 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.0398</v>
+        <v>64.2197</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>81.1147</v>
+        <v>80.1482</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -781,15 +753,15 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.5461</v>
+        <v>64.87179999999999</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>79.9593</v>
+        <v>80.37520000000001</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -801,15 +773,15 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.2197</v>
+        <v>69.54470000000001</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>80.1482</v>
+        <v>82.7727</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -818,26 +790,6 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>64.87179999999999</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>80.37520000000001</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
